--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +97,7 @@
     <t>Plxna4</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.9313440387235</v>
+        <v>46.32737733333334</v>
       </c>
       <c r="H2">
-        <v>39.9313440387235</v>
+        <v>138.982132</v>
       </c>
       <c r="I2">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824507</v>
       </c>
       <c r="J2">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824506</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.32468411735159</v>
+        <v>2.59603</v>
       </c>
       <c r="N2">
-        <v>1.32468411735159</v>
+        <v>7.78809</v>
       </c>
       <c r="O2">
-        <v>0.637463287377932</v>
+        <v>0.7224164495330042</v>
       </c>
       <c r="P2">
-        <v>0.637463287377932</v>
+        <v>0.7224164495330041</v>
       </c>
       <c r="Q2">
-        <v>52.89641723259911</v>
+        <v>120.2672613786534</v>
       </c>
       <c r="R2">
-        <v>52.89641723259911</v>
+        <v>1082.40535240788</v>
       </c>
       <c r="S2">
-        <v>0.4131780796856961</v>
+        <v>0.4115270114586106</v>
       </c>
       <c r="T2">
-        <v>0.4131780796856961</v>
+        <v>0.4115270114586105</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.9313440387235</v>
+        <v>46.32737733333334</v>
       </c>
       <c r="H3">
-        <v>39.9313440387235</v>
+        <v>138.982132</v>
       </c>
       <c r="I3">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824507</v>
       </c>
       <c r="J3">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824506</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.217001457306231</v>
+        <v>0.2626673333333333</v>
       </c>
       <c r="N3">
-        <v>0.217001457306231</v>
+        <v>0.788002</v>
       </c>
       <c r="O3">
-        <v>0.1044252441229482</v>
+        <v>0.07309437963157928</v>
       </c>
       <c r="P3">
-        <v>0.1044252441229482</v>
+        <v>0.07309437963157928</v>
       </c>
       <c r="Q3">
-        <v>8.66515984859948</v>
+        <v>12.16868866447378</v>
       </c>
       <c r="R3">
-        <v>8.66515984859948</v>
+        <v>109.518197980264</v>
       </c>
       <c r="S3">
-        <v>0.0676842458095155</v>
+        <v>0.04163846438387435</v>
       </c>
       <c r="T3">
-        <v>0.0676842458095155</v>
+        <v>0.04163846438387434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.9313440387235</v>
+        <v>46.32737733333334</v>
       </c>
       <c r="H4">
-        <v>39.9313440387235</v>
+        <v>138.982132</v>
       </c>
       <c r="I4">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824507</v>
       </c>
       <c r="J4">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824506</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.150414738433222</v>
+        <v>0.05896966666666666</v>
       </c>
       <c r="N4">
-        <v>0.150414738433222</v>
+        <v>0.176909</v>
       </c>
       <c r="O4">
-        <v>0.07238244376586311</v>
+        <v>0.01640992485582912</v>
       </c>
       <c r="P4">
-        <v>0.07238244376586311</v>
+        <v>0.01640992485582912</v>
       </c>
       <c r="Q4">
-        <v>6.006262668871594</v>
+        <v>2.731909998887556</v>
       </c>
       <c r="R4">
-        <v>6.006262668871594</v>
+        <v>24.587189989988</v>
       </c>
       <c r="S4">
-        <v>0.04691539059630014</v>
+        <v>0.009347970050440009</v>
       </c>
       <c r="T4">
-        <v>0.04691539059630014</v>
+        <v>0.009347970050440005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.9313440387235</v>
+        <v>46.32737733333334</v>
       </c>
       <c r="H5">
-        <v>39.9313440387235</v>
+        <v>138.982132</v>
       </c>
       <c r="I5">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824507</v>
       </c>
       <c r="J5">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824506</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.385955229213821</v>
+        <v>0.277219</v>
       </c>
       <c r="N5">
-        <v>0.385955229213821</v>
+        <v>0.8316570000000001</v>
       </c>
       <c r="O5">
-        <v>0.1857290247332566</v>
+        <v>0.07714377943363131</v>
       </c>
       <c r="P5">
-        <v>0.1857290247332566</v>
+        <v>0.07714377943363131</v>
       </c>
       <c r="Q5">
-        <v>15.41171104128147</v>
+        <v>12.84282921696934</v>
       </c>
       <c r="R5">
-        <v>15.41171104128147</v>
+        <v>115.585462952724</v>
       </c>
       <c r="S5">
-        <v>0.1203820883502705</v>
+        <v>0.04394521888789597</v>
       </c>
       <c r="T5">
-        <v>0.1203820883502705</v>
+        <v>0.04394521888789596</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.18357439474927</v>
+        <v>46.32737733333334</v>
       </c>
       <c r="H6">
-        <v>2.18357439474927</v>
+        <v>138.982132</v>
       </c>
       <c r="I6">
-        <v>0.03544346394432091</v>
+        <v>0.5696534342824507</v>
       </c>
       <c r="J6">
-        <v>0.03544346394432091</v>
+        <v>0.5696534342824506</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.32468411735159</v>
+        <v>0.01175366666666667</v>
       </c>
       <c r="N6">
-        <v>1.32468411735159</v>
+        <v>0.035261</v>
       </c>
       <c r="O6">
-        <v>0.637463287377932</v>
+        <v>0.003270779668311904</v>
       </c>
       <c r="P6">
-        <v>0.637463287377932</v>
+        <v>0.003270779668311904</v>
       </c>
       <c r="Q6">
-        <v>2.892546319779969</v>
+        <v>0.544516550716889</v>
       </c>
       <c r="R6">
-        <v>2.892546319779969</v>
+        <v>4.900648956452001</v>
       </c>
       <c r="S6">
-        <v>0.02259390704200801</v>
+        <v>0.001863210870835091</v>
       </c>
       <c r="T6">
-        <v>0.02259390704200801</v>
+        <v>0.001863210870835091</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.18357439474927</v>
+        <v>46.32737733333334</v>
       </c>
       <c r="H7">
-        <v>2.18357439474927</v>
+        <v>138.982132</v>
       </c>
       <c r="I7">
-        <v>0.03544346394432091</v>
+        <v>0.5696534342824507</v>
       </c>
       <c r="J7">
-        <v>0.03544346394432091</v>
+        <v>0.5696534342824506</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.217001457306231</v>
+        <v>0.386897</v>
       </c>
       <c r="N7">
-        <v>0.217001457306231</v>
+        <v>1.160691</v>
       </c>
       <c r="O7">
-        <v>0.1044252441229482</v>
+        <v>0.1076646868776442</v>
       </c>
       <c r="P7">
-        <v>0.1044252441229482</v>
+        <v>0.1076646868776442</v>
       </c>
       <c r="Q7">
-        <v>0.4738388257971629</v>
+        <v>17.92392330813467</v>
       </c>
       <c r="R7">
-        <v>0.4738388257971629</v>
+        <v>161.315309773212</v>
       </c>
       <c r="S7">
-        <v>0.003701192374948624</v>
+        <v>0.06133155863079473</v>
       </c>
       <c r="T7">
-        <v>0.003701192374948624</v>
+        <v>0.06133155863079471</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.18357439474927</v>
+        <v>2.396867666666667</v>
       </c>
       <c r="H8">
-        <v>2.18357439474927</v>
+        <v>7.190603</v>
       </c>
       <c r="I8">
-        <v>0.03544346394432091</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="J8">
-        <v>0.03544346394432091</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.150414738433222</v>
+        <v>2.59603</v>
       </c>
       <c r="N8">
-        <v>0.150414738433222</v>
+        <v>7.78809</v>
       </c>
       <c r="O8">
-        <v>0.07238244376586311</v>
+        <v>0.7224164495330042</v>
       </c>
       <c r="P8">
-        <v>0.07238244376586311</v>
+        <v>0.7224164495330041</v>
       </c>
       <c r="Q8">
-        <v>0.3284417714356925</v>
+        <v>6.222340368696667</v>
       </c>
       <c r="R8">
-        <v>0.3284417714356925</v>
+        <v>56.00106331827001</v>
       </c>
       <c r="S8">
-        <v>0.002565484535817205</v>
+        <v>0.0212914230095083</v>
       </c>
       <c r="T8">
-        <v>0.002565484535817205</v>
+        <v>0.02129142300950829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,309 +962,1425 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.18357439474927</v>
+        <v>2.396867666666667</v>
       </c>
       <c r="H9">
-        <v>2.18357439474927</v>
+        <v>7.190603</v>
       </c>
       <c r="I9">
-        <v>0.03544346394432091</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="J9">
-        <v>0.03544346394432091</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.385955229213821</v>
+        <v>0.2626673333333333</v>
       </c>
       <c r="N9">
-        <v>0.385955229213821</v>
+        <v>0.788002</v>
       </c>
       <c r="O9">
-        <v>0.1857290247332566</v>
+        <v>0.07309437963157928</v>
       </c>
       <c r="P9">
-        <v>0.1857290247332566</v>
+        <v>0.07309437963157928</v>
       </c>
       <c r="Q9">
-        <v>0.842761956030885</v>
+        <v>0.6295788383562222</v>
       </c>
       <c r="R9">
-        <v>0.842761956030885</v>
+        <v>5.666209545206</v>
       </c>
       <c r="S9">
-        <v>0.006582879991547066</v>
+        <v>0.002154274528714814</v>
       </c>
       <c r="T9">
-        <v>0.006582879991547066</v>
+        <v>0.002154274528714814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.4923329960011</v>
+        <v>2.396867666666667</v>
       </c>
       <c r="H10">
-        <v>19.4923329960011</v>
+        <v>7.190603</v>
       </c>
       <c r="I10">
-        <v>0.3163967316138967</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="J10">
-        <v>0.3163967316138967</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.32468411735159</v>
+        <v>0.05896966666666666</v>
       </c>
       <c r="N10">
-        <v>1.32468411735159</v>
+        <v>0.176909</v>
       </c>
       <c r="O10">
-        <v>0.637463287377932</v>
+        <v>0.01640992485582912</v>
       </c>
       <c r="P10">
-        <v>0.637463287377932</v>
+        <v>0.01640992485582912</v>
       </c>
       <c r="Q10">
-        <v>25.82118392993099</v>
+        <v>0.1413424873474444</v>
       </c>
       <c r="R10">
-        <v>25.82118392993099</v>
+        <v>1.272082386127</v>
       </c>
       <c r="S10">
-        <v>0.2016913006502279</v>
+        <v>0.0004836416057324841</v>
       </c>
       <c r="T10">
-        <v>0.2016913006502279</v>
+        <v>0.0004836416057324841</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.4923329960011</v>
+        <v>2.396867666666667</v>
       </c>
       <c r="H11">
-        <v>19.4923329960011</v>
+        <v>7.190603</v>
       </c>
       <c r="I11">
-        <v>0.3163967316138967</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="J11">
-        <v>0.3163967316138967</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.217001457306231</v>
+        <v>0.277219</v>
       </c>
       <c r="N11">
-        <v>0.217001457306231</v>
+        <v>0.8316570000000001</v>
       </c>
       <c r="O11">
-        <v>0.1044252441229482</v>
+        <v>0.07714377943363131</v>
       </c>
       <c r="P11">
-        <v>0.1044252441229482</v>
+        <v>0.07714377943363131</v>
       </c>
       <c r="Q11">
-        <v>4.22986466643057</v>
+        <v>0.6644572576856668</v>
       </c>
       <c r="R11">
-        <v>4.22986466643057</v>
+        <v>5.980115319171001</v>
       </c>
       <c r="S11">
-        <v>0.03303980593848409</v>
+        <v>0.002273620487926904</v>
       </c>
       <c r="T11">
-        <v>0.03303980593848409</v>
+        <v>0.002273620487926904</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.4923329960011</v>
+        <v>2.396867666666667</v>
       </c>
       <c r="H12">
-        <v>19.4923329960011</v>
+        <v>7.190603</v>
       </c>
       <c r="I12">
-        <v>0.3163967316138967</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="J12">
-        <v>0.3163967316138967</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.150414738433222</v>
+        <v>0.01175366666666667</v>
       </c>
       <c r="N12">
-        <v>0.150414738433222</v>
+        <v>0.035261</v>
       </c>
       <c r="O12">
-        <v>0.07238244376586311</v>
+        <v>0.003270779668311904</v>
       </c>
       <c r="P12">
-        <v>0.07238244376586311</v>
+        <v>0.003270779668311904</v>
       </c>
       <c r="Q12">
-        <v>2.931934169046768</v>
+        <v>0.02817198359811111</v>
       </c>
       <c r="R12">
-        <v>2.931934169046768</v>
+        <v>0.253547852383</v>
       </c>
       <c r="S12">
-        <v>0.02290156863374576</v>
+        <v>9.639807279297902E-05</v>
       </c>
       <c r="T12">
-        <v>0.02290156863374576</v>
+        <v>9.639807279297902E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.396867666666667</v>
+      </c>
+      <c r="H13">
+        <v>7.190603</v>
+      </c>
+      <c r="I13">
+        <v>0.02947250581471647</v>
+      </c>
+      <c r="J13">
+        <v>0.02947250581471647</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.386897</v>
+      </c>
+      <c r="N13">
+        <v>1.160691</v>
+      </c>
+      <c r="O13">
+        <v>0.1076646868776442</v>
+      </c>
+      <c r="P13">
+        <v>0.1076646868776442</v>
+      </c>
+      <c r="Q13">
+        <v>0.9273409096303333</v>
+      </c>
+      <c r="R13">
+        <v>8.346068186673</v>
+      </c>
+      <c r="S13">
+        <v>0.003173148110040997</v>
+      </c>
+      <c r="T13">
+        <v>0.003173148110040997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.050696</v>
+      </c>
+      <c r="H14">
+        <v>0.152088</v>
+      </c>
+      <c r="I14">
+        <v>0.0006233711504234901</v>
+      </c>
+      <c r="J14">
+        <v>0.00062337115042349</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.59603</v>
+      </c>
+      <c r="N14">
+        <v>7.78809</v>
+      </c>
+      <c r="O14">
+        <v>0.7224164495330042</v>
+      </c>
+      <c r="P14">
+        <v>0.7224164495330041</v>
+      </c>
+      <c r="Q14">
+        <v>0.13160833688</v>
+      </c>
+      <c r="R14">
+        <v>1.18447503192</v>
+      </c>
+      <c r="S14">
+        <v>0.0004503335732302421</v>
+      </c>
+      <c r="T14">
+        <v>0.0004503335732302419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.050696</v>
+      </c>
+      <c r="H15">
+        <v>0.152088</v>
+      </c>
+      <c r="I15">
+        <v>0.0006233711504234901</v>
+      </c>
+      <c r="J15">
+        <v>0.00062337115042349</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2626673333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.788002</v>
+      </c>
+      <c r="O15">
+        <v>0.07309437963157928</v>
+      </c>
+      <c r="P15">
+        <v>0.07309437963157928</v>
+      </c>
+      <c r="Q15">
+        <v>0.01331618313066667</v>
+      </c>
+      <c r="R15">
+        <v>0.119845648176</v>
+      </c>
+      <c r="S15">
+        <v>4.55649275204289E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.556492752042889E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.050696</v>
+      </c>
+      <c r="H16">
+        <v>0.152088</v>
+      </c>
+      <c r="I16">
+        <v>0.0006233711504234901</v>
+      </c>
+      <c r="J16">
+        <v>0.00062337115042349</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.05896966666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.176909</v>
+      </c>
+      <c r="O16">
+        <v>0.01640992485582912</v>
+      </c>
+      <c r="P16">
+        <v>0.01640992485582912</v>
+      </c>
+      <c r="Q16">
+        <v>0.002989526221333333</v>
+      </c>
+      <c r="R16">
+        <v>0.026905735992</v>
+      </c>
+      <c r="S16">
+        <v>1.022947373574122E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.022947373574122E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.050696</v>
+      </c>
+      <c r="H17">
+        <v>0.152088</v>
+      </c>
+      <c r="I17">
+        <v>0.0006233711504234901</v>
+      </c>
+      <c r="J17">
+        <v>0.00062337115042349</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.277219</v>
+      </c>
+      <c r="N17">
+        <v>0.8316570000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.07714377943363131</v>
+      </c>
+      <c r="P17">
+        <v>0.07714377943363131</v>
+      </c>
+      <c r="Q17">
+        <v>0.014053894424</v>
+      </c>
+      <c r="R17">
+        <v>0.126485049816</v>
+      </c>
+      <c r="S17">
+        <v>4.808920653355873E-05</v>
+      </c>
+      <c r="T17">
+        <v>4.808920653355871E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.050696</v>
+      </c>
+      <c r="H18">
+        <v>0.152088</v>
+      </c>
+      <c r="I18">
+        <v>0.0006233711504234901</v>
+      </c>
+      <c r="J18">
+        <v>0.00062337115042349</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01175366666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.035261</v>
+      </c>
+      <c r="O18">
+        <v>0.003270779668311904</v>
+      </c>
+      <c r="P18">
+        <v>0.003270779668311904</v>
+      </c>
+      <c r="Q18">
+        <v>0.0005958638853333333</v>
+      </c>
+      <c r="R18">
+        <v>0.005362774968</v>
+      </c>
+      <c r="S18">
+        <v>2.038909684617353E-06</v>
+      </c>
+      <c r="T18">
+        <v>2.038909684617353E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.050696</v>
+      </c>
+      <c r="H19">
+        <v>0.152088</v>
+      </c>
+      <c r="I19">
+        <v>0.0006233711504234901</v>
+      </c>
+      <c r="J19">
+        <v>0.00062337115042349</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.386897</v>
+      </c>
+      <c r="N19">
+        <v>1.160691</v>
+      </c>
+      <c r="O19">
+        <v>0.1076646868776442</v>
+      </c>
+      <c r="P19">
+        <v>0.1076646868776442</v>
+      </c>
+      <c r="Q19">
+        <v>0.019614130312</v>
+      </c>
+      <c r="R19">
+        <v>0.176527172808</v>
+      </c>
+      <c r="S19">
+        <v>6.711505971890191E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.711505971890189E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.107048</v>
+      </c>
+      <c r="H20">
+        <v>0.321144</v>
+      </c>
+      <c r="I20">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="J20">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.59603</v>
+      </c>
+      <c r="N20">
+        <v>7.78809</v>
+      </c>
+      <c r="O20">
+        <v>0.7224164495330042</v>
+      </c>
+      <c r="P20">
+        <v>0.7224164495330041</v>
+      </c>
+      <c r="Q20">
+        <v>0.27789981944</v>
+      </c>
+      <c r="R20">
+        <v>2.50109837496</v>
+      </c>
+      <c r="S20">
+        <v>0.0009509095066109938</v>
+      </c>
+      <c r="T20">
+        <v>0.0009509095066109937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.107048</v>
+      </c>
+      <c r="H21">
+        <v>0.321144</v>
+      </c>
+      <c r="I21">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="J21">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2626673333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.788002</v>
+      </c>
+      <c r="O21">
+        <v>0.07309437963157928</v>
+      </c>
+      <c r="P21">
+        <v>0.07309437963157928</v>
+      </c>
+      <c r="Q21">
+        <v>0.02811801269866666</v>
+      </c>
+      <c r="R21">
+        <v>0.253062114288</v>
+      </c>
+      <c r="S21">
+        <v>9.621339674149583E-05</v>
+      </c>
+      <c r="T21">
+        <v>9.621339674149583E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.107048</v>
+      </c>
+      <c r="H22">
+        <v>0.321144</v>
+      </c>
+      <c r="I22">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="J22">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.05896966666666666</v>
+      </c>
+      <c r="N22">
+        <v>0.176909</v>
+      </c>
+      <c r="O22">
+        <v>0.01640992485582912</v>
+      </c>
+      <c r="P22">
+        <v>0.01640992485582912</v>
+      </c>
+      <c r="Q22">
+        <v>0.006312584877333332</v>
+      </c>
+      <c r="R22">
+        <v>0.05681326389599999</v>
+      </c>
+      <c r="S22">
+        <v>2.160021904023249E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.160021904023249E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>19.4923329960011</v>
-      </c>
-      <c r="H13">
-        <v>19.4923329960011</v>
-      </c>
-      <c r="I13">
-        <v>0.3163967316138967</v>
-      </c>
-      <c r="J13">
-        <v>0.3163967316138967</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.385955229213821</v>
-      </c>
-      <c r="N13">
-        <v>0.385955229213821</v>
-      </c>
-      <c r="O13">
-        <v>0.1857290247332566</v>
-      </c>
-      <c r="P13">
-        <v>0.1857290247332566</v>
-      </c>
-      <c r="Q13">
-        <v>7.523167849383731</v>
-      </c>
-      <c r="R13">
-        <v>7.523167849383731</v>
-      </c>
-      <c r="S13">
-        <v>0.05876405639143897</v>
-      </c>
-      <c r="T13">
-        <v>0.05876405639143897</v>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.107048</v>
+      </c>
+      <c r="H23">
+        <v>0.321144</v>
+      </c>
+      <c r="I23">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="J23">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.277219</v>
+      </c>
+      <c r="N23">
+        <v>0.8316570000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.07714377943363131</v>
+      </c>
+      <c r="P23">
+        <v>0.07714377943363131</v>
+      </c>
+      <c r="Q23">
+        <v>0.029675739512</v>
+      </c>
+      <c r="R23">
+        <v>0.267081655608</v>
+      </c>
+      <c r="S23">
+        <v>0.0001015435809729445</v>
+      </c>
+      <c r="T23">
+        <v>0.0001015435809729445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.107048</v>
+      </c>
+      <c r="H24">
+        <v>0.321144</v>
+      </c>
+      <c r="I24">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="J24">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01175366666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.035261</v>
+      </c>
+      <c r="O24">
+        <v>0.003270779668311904</v>
+      </c>
+      <c r="P24">
+        <v>0.003270779668311904</v>
+      </c>
+      <c r="Q24">
+        <v>0.001258206509333333</v>
+      </c>
+      <c r="R24">
+        <v>0.011323858584</v>
+      </c>
+      <c r="S24">
+        <v>4.30529438060041E-06</v>
+      </c>
+      <c r="T24">
+        <v>4.30529438060041E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.107048</v>
+      </c>
+      <c r="H25">
+        <v>0.321144</v>
+      </c>
+      <c r="I25">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="J25">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.386897</v>
+      </c>
+      <c r="N25">
+        <v>1.160691</v>
+      </c>
+      <c r="O25">
+        <v>0.1076646868776442</v>
+      </c>
+      <c r="P25">
+        <v>0.1076646868776442</v>
+      </c>
+      <c r="Q25">
+        <v>0.04141655005599999</v>
+      </c>
+      <c r="R25">
+        <v>0.372748950504</v>
+      </c>
+      <c r="S25">
+        <v>0.0001417179444687749</v>
+      </c>
+      <c r="T25">
+        <v>0.0001417179444687749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>32.44355833333334</v>
+      </c>
+      <c r="H26">
+        <v>97.33067500000001</v>
+      </c>
+      <c r="I26">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="J26">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.59603</v>
+      </c>
+      <c r="N26">
+        <v>7.78809</v>
+      </c>
+      <c r="O26">
+        <v>0.7224164495330042</v>
+      </c>
+      <c r="P26">
+        <v>0.7224164495330041</v>
+      </c>
+      <c r="Q26">
+        <v>84.22445074008334</v>
+      </c>
+      <c r="R26">
+        <v>758.0200566607501</v>
+      </c>
+      <c r="S26">
+        <v>0.2881967719850441</v>
+      </c>
+      <c r="T26">
+        <v>0.2881967719850441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>32.44355833333334</v>
+      </c>
+      <c r="H27">
+        <v>97.33067500000001</v>
+      </c>
+      <c r="I27">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="J27">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.2626673333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.788002</v>
+      </c>
+      <c r="O27">
+        <v>0.07309437963157928</v>
+      </c>
+      <c r="P27">
+        <v>0.07309437963157928</v>
+      </c>
+      <c r="Q27">
+        <v>8.521862951261111</v>
+      </c>
+      <c r="R27">
+        <v>76.69676656135</v>
+      </c>
+      <c r="S27">
+        <v>0.02915986239472819</v>
+      </c>
+      <c r="T27">
+        <v>0.02915986239472819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>32.44355833333334</v>
+      </c>
+      <c r="H28">
+        <v>97.33067500000001</v>
+      </c>
+      <c r="I28">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="J28">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.05896966666666666</v>
+      </c>
+      <c r="N28">
+        <v>0.176909</v>
+      </c>
+      <c r="O28">
+        <v>0.01640992485582912</v>
+      </c>
+      <c r="P28">
+        <v>0.01640992485582912</v>
+      </c>
+      <c r="Q28">
+        <v>1.913185820397222</v>
+      </c>
+      <c r="R28">
+        <v>17.218672383575</v>
+      </c>
+      <c r="S28">
+        <v>0.006546483506880654</v>
+      </c>
+      <c r="T28">
+        <v>0.006546483506880654</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>32.44355833333334</v>
+      </c>
+      <c r="H29">
+        <v>97.33067500000001</v>
+      </c>
+      <c r="I29">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="J29">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.277219</v>
+      </c>
+      <c r="N29">
+        <v>0.8316570000000001</v>
+      </c>
+      <c r="O29">
+        <v>0.07714377943363131</v>
+      </c>
+      <c r="P29">
+        <v>0.07714377943363131</v>
+      </c>
+      <c r="Q29">
+        <v>8.993970797608336</v>
+      </c>
+      <c r="R29">
+        <v>80.94573717847501</v>
+      </c>
+      <c r="S29">
+        <v>0.03077530727030194</v>
+      </c>
+      <c r="T29">
+        <v>0.03077530727030194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>32.44355833333334</v>
+      </c>
+      <c r="H30">
+        <v>97.33067500000001</v>
+      </c>
+      <c r="I30">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="J30">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.01175366666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.035261</v>
+      </c>
+      <c r="O30">
+        <v>0.003270779668311904</v>
+      </c>
+      <c r="P30">
+        <v>0.003270779668311904</v>
+      </c>
+      <c r="Q30">
+        <v>0.3813307701305556</v>
+      </c>
+      <c r="R30">
+        <v>3.431976931175</v>
+      </c>
+      <c r="S30">
+        <v>0.001304826520618616</v>
+      </c>
+      <c r="T30">
+        <v>0.001304826520618616</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>32.44355833333334</v>
+      </c>
+      <c r="H31">
+        <v>97.33067500000001</v>
+      </c>
+      <c r="I31">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="J31">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.386897</v>
+      </c>
+      <c r="N31">
+        <v>1.160691</v>
+      </c>
+      <c r="O31">
+        <v>0.1076646868776442</v>
+      </c>
+      <c r="P31">
+        <v>0.1076646868776442</v>
+      </c>
+      <c r="Q31">
+        <v>12.55231538849167</v>
+      </c>
+      <c r="R31">
+        <v>112.970838496425</v>
+      </c>
+      <c r="S31">
+        <v>0.04295114713262081</v>
+      </c>
+      <c r="T31">
+        <v>0.04295114713262081</v>
       </c>
     </row>
   </sheetData>
